--- a/تحليل بيانات الحج والعمرة/تطبيق نُسُك/عدد مستخدمين تطبيق نُسُك ١٤٤٤٣-١٤٤٤هـ.xlsx
+++ b/تحليل بيانات الحج والعمرة/تطبيق نُسُك/عدد مستخدمين تطبيق نُسُك ١٤٤٤٣-١٤٤٤هـ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanimouneer/Desktop/My_Projects/تحليل بيانات الحج والعمرة/تطبيق نُسُك/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanimouneer/Desktop/my_projects/تحليل بيانات الحج والعمرة/تطبيق نُسُك/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2013E5E6-1015-A447-9192-84AF8C6455B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECCC482F-8AE4-CC48-8327-A508B91E90EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="2" xr2:uid="{162CA4B8-2A26-4EBB-BC7A-4F65F9349636}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{162CA4B8-2A26-4EBB-BC7A-4F65F9349636}"/>
   </bookViews>
   <sheets>
     <sheet name="البيانات الأصلية" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="23">
   <si>
     <t>40- 49</t>
   </si>
@@ -115,9 +116,6 @@
   </si>
   <si>
     <t>مجموع من عدد مستخدمي تطبيق نسك</t>
-  </si>
-  <si>
-    <t>(الكل)</t>
   </si>
   <si>
     <t>مجموع عدد المستخدمين</t>
@@ -186,7 +184,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,13 +213,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -229,7 +231,7 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -242,6 +244,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -671,23 +679,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-4D2E-8443-956B-6C4BEE542640}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -746,29 +737,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$A$38:$A$40</c:f>
+              <c:f>' على حسب السنة والعمر'!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1444</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' على حسب السنة والعمر'!$B$38:$B$40</c:f>
+              <c:f>' على حسب السنة والعمر'!$B$38:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>16233656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15480321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,6 +1297,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1349,37 +1390,37 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0 - 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10- 19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 فأكثر</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20- 29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30- 39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40- 49</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50- 59</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>30- 39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40- 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>60- 69</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20- 29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>70- 79</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>80- 89</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>90- 99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100 فأكثر</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1391,37 +1432,37 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>307081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2175246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3583229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4005484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2731972</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1923689</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4005484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2731972</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1133168</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3583229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2175246</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>302396</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>307081</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>62091</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7185</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,119 +1470,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E9F-2246-BD06-346CCA9FF3EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$C$7:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1444</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$A$9:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>50- 59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30- 39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40- 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60- 69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20- 29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70- 79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80- 89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90- 99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100 فأكثر</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>' على حسب السنة والعمر'!$C$9:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2767237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2699279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2577676</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2503807</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2137880</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1137302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>919844</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>573919</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12883</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2470</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DC7A-084B-ACB0-83EBD810FE3D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3762,41 +3690,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>72612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47215</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>39077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50035</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51085</c:v>
+                  <c:v>1535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181945</c:v>
+                  <c:v>102237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234017</c:v>
+                  <c:v>145864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48375</c:v>
+                  <c:v>26328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19580</c:v>
+                  <c:v>10443</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36425</c:v>
+                  <c:v>20673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,40 +3795,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>442516</c:v>
+                  <c:v>307795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226316</c:v>
+                  <c:v>156063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185363</c:v>
+                  <c:v>122367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410777</c:v>
+                  <c:v>339802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>314264</c:v>
+                  <c:v>197091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265332</c:v>
+                  <c:v>160337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184625</c:v>
+                  <c:v>89931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>420377</c:v>
+                  <c:v>267258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>603233</c:v>
+                  <c:v>386888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105071</c:v>
+                  <c:v>55925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61883</c:v>
+                  <c:v>35479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92791</c:v>
+                  <c:v>56310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4001,40 +3914,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>371</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>687</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1182</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>411</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,40 +4033,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>463776</c:v>
+                  <c:v>319527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402031</c:v>
+                  <c:v>247167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>368444</c:v>
+                  <c:v>218749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>654557</c:v>
+                  <c:v>484671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>692343</c:v>
+                  <c:v>509072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580900</c:v>
+                  <c:v>384959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475995</c:v>
+                  <c:v>257220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589760</c:v>
+                  <c:v>332853</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>973887</c:v>
+                  <c:v>561797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227783</c:v>
+                  <c:v>113745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186630</c:v>
+                  <c:v>96142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105003</c:v>
+                  <c:v>57327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4239,40 +4152,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>487537</c:v>
+                  <c:v>339311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>439981</c:v>
+                  <c:v>264849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>434761</c:v>
+                  <c:v>245110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>848101</c:v>
+                  <c:v>635219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800851</c:v>
+                  <c:v>559360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>681284</c:v>
+                  <c:v>425897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>557686</c:v>
+                  <c:v>277141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>684243</c:v>
+                  <c:v>353665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>980463</c:v>
+                  <c:v>555124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272486</c:v>
+                  <c:v>123343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>388921</c:v>
+                  <c:v>165313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128449</c:v>
+                  <c:v>61152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4358,40 +4271,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>336103</c:v>
+                  <c:v>208785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316882</c:v>
+                  <c:v>158325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>332850</c:v>
+                  <c:v>149873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>619546</c:v>
+                  <c:v>423257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570863</c:v>
+                  <c:v>342337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>513615</c:v>
+                  <c:v>269295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>474801</c:v>
+                  <c:v>193135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571311</c:v>
+                  <c:v>251616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>697333</c:v>
+                  <c:v>380158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225448</c:v>
+                  <c:v>92418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>544981</c:v>
+                  <c:v>217204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105915</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,40 +4392,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>233554</c:v>
+                  <c:v>105529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>266198</c:v>
+                  <c:v>88155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304100</c:v>
+                  <c:v>88492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462976</c:v>
+                  <c:v>236546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>425699</c:v>
+                  <c:v>195900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412044</c:v>
+                  <c:v>163780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>472970</c:v>
+                  <c:v>157956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>581093</c:v>
+                  <c:v>210535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551476</c:v>
+                  <c:v>287431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219581</c:v>
+                  <c:v>79357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>686223</c:v>
+                  <c:v>279881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75012</c:v>
+                  <c:v>30127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,40 +4513,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>141197</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190083</c:v>
+                  <c:v>39730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241656</c:v>
+                  <c:v>43284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311182</c:v>
+                  <c:v>104219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281474</c:v>
+                  <c:v>88772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302522</c:v>
+                  <c:v>85922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>390952</c:v>
+                  <c:v>108043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>534887</c:v>
+                  <c:v>161646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>428911</c:v>
+                  <c:v>208485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186256</c:v>
+                  <c:v>61884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>580440</c:v>
+                  <c:v>171686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47415</c:v>
+                  <c:v>16296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,40 +4634,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41405</c:v>
+                  <c:v>11447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60776</c:v>
+                  <c:v>11056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83185</c:v>
+                  <c:v>12431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101533</c:v>
+                  <c:v>27217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92891</c:v>
+                  <c:v>23491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107083</c:v>
+                  <c:v>24764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144290</c:v>
+                  <c:v>34331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203610</c:v>
+                  <c:v>57334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153756</c:v>
+                  <c:v>73362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64384</c:v>
+                  <c:v>21329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157594</c:v>
+                  <c:v>2939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11733</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4842,40 +4755,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7869</c:v>
+                  <c:v>3288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10596</c:v>
+                  <c:v>2926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14141</c:v>
+                  <c:v>3002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18331</c:v>
+                  <c:v>6469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16039</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19015</c:v>
+                  <c:v>5651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23707</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33712</c:v>
+                  <c:v>10433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26585</c:v>
+                  <c:v>13700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10726</c:v>
+                  <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27635</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1759</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4963,40 +4876,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>981</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1181</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1453</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1829</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1549</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1738</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2097</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2855</c:v>
+                  <c:v>1005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2510</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>981</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2738</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,23 +5877,6 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8203-C84C-B267-6461963AB241}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -6039,29 +5935,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$A$38:$A$40</c:f>
+              <c:f>' على حسب السنة والعمر'!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>1443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1444</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' على حسب السنة والعمر'!$B$38:$B$40</c:f>
+              <c:f>' على حسب السنة والعمر'!$B$38:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>16233656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15480321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,29 +5986,6 @@
       <c:legendPos val="r"/>
       <c:legendEntry>
         <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ar-SA"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -7135,19 +7002,19 @@
                   <c:v>40- 49</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10- 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50- 59</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>60- 69</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0 - 9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>70- 79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80- 89</c:v>
@@ -7168,37 +7035,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21141350389451313</c:v>
+                  <c:v>0.24673948985983193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18039708485630798</c:v>
+                  <c:v>0.2207284052341629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16742296306767201</c:v>
+                  <c:v>0.1682906179606122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14791352090593998</c:v>
+                  <c:v>0.13399606348686949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11468050821882099</c:v>
+                  <c:v>0.11850004706271958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10445072845956847</c:v>
+                  <c:v>6.9803622794520223E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8539474251368729E-2</c:v>
+                  <c:v>1.8916318049366082E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7779549691922902E-2</c:v>
+                  <c:v>1.8627720089670497E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6253122400889673E-3</c:v>
+                  <c:v>3.8248315721363074E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3278093441260935E-4</c:v>
+                  <c:v>4.4259900542428641E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4457347938418445E-4</c:v>
+                  <c:v>1.3028488468648096E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,7 +7318,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -7507,7 +7374,63 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ar-SA"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -7522,7 +7445,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7548,100 +7471,43 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ar-SA"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>' على حسب السنة والعمر'!$A$9:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0 - 9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10- 19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 فأكثر</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20- 29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30- 39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40- 49</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50- 59</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>30- 39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40- 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>60- 69</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>20- 29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>70- 79</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>80- 89</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>90- 99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100 فأكثر</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7653,37 +7519,37 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>307081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2175246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3583229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4005484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2731972</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1923689</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4005484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2731972</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>1133168</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3583229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2175246</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>302396</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>307081</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>62091</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>7185</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7691,176 +7557,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-22FE-6246-9678-6BD9BC3273AE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$C$7:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1444</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ar-SA"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>' على حسب السنة والعمر'!$A$9:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>50- 59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30- 39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40- 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60- 69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20- 29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70- 79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80- 89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90- 99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100 فأكثر</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>' على حسب السنة والعمر'!$C$9:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2767237</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2699279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2577676</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2503807</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2137880</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1137302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>919844</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>573919</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12883</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2470</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DE1-0148-92D6-B6B1ACA4C626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7873,7 +7569,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="1816650559"/>
         <c:axId val="1816652287"/>
       </c:barChart>
@@ -7990,20 +7685,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8025,7 +7706,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ar-SA"/>
-                  <a:t>عدد مستخدمين التطبيق</a:t>
+                  <a:t>المستخدمين</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8093,6 +7774,38 @@
         <c:crossAx val="1816650559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ar-SA"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8417,22 +8130,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-                <a:tailEnd type="stealth"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>' على حسب السنة والعمر'!$A$76:$A$78</c:f>
@@ -8488,61 +8185,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ar-SA"/>
-                  <a:t>السنة</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ar-SA"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8594,20 +8236,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -8629,7 +8257,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ar-SA"/>
-                  <a:t>عدد مستخدمين التطبيق</a:t>
+                  <a:t>المستخدمين</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8698,10 +8326,42 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500000"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ar-SA"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -8915,7 +8575,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -9071,63 +8731,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ar-SA"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'التغير بين السنتين'!$A$4:$A$16</c:f>
@@ -9179,40 +8782,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2227921</c:v>
+                  <c:v>1339447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1961627</c:v>
+                  <c:v>968721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2005252</c:v>
+                  <c:v>883795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3472915</c:v>
+                  <c:v>2258326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3252932</c:v>
+                  <c:v>1922229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2933770</c:v>
+                  <c:v>1521380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2778441</c:v>
+                  <c:v>1126275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3804480</c:v>
+                  <c:v>1748973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4653353</c:v>
+                  <c:v>2615121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1361502</c:v>
+                  <c:v>578644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2656949</c:v>
+                  <c:v>979833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>604835</c:v>
+                  <c:v>290912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9315,37 +8918,37 @@
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>-266294</c:v>
+                  <c:v>-370726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43625</c:v>
+                  <c:v>-84926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1467663</c:v>
+                  <c:v>1374531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-219983</c:v>
+                  <c:v>-336097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-319162</c:v>
+                  <c:v>-400849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-155329</c:v>
+                  <c:v>-395105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1026039</c:v>
+                  <c:v>622698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>848873</c:v>
+                  <c:v>866148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3291851</c:v>
+                  <c:v>-2036477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1295447</c:v>
+                  <c:v>401189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2052114</c:v>
+                  <c:v>-688921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9428,20 +9031,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9476,6 +9065,38 @@
         <c:crossAx val="1589032703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ar-SA"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9973,125 +9594,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'التغير بين السنتين'!$C$28:$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1444</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'التغير بين السنتين'!$A$30:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'التغير بين السنتين'!$C$30:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>888474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>992906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1121457</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1214589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1330703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1412390</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1652166</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2055507</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2038232</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>782858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1677116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>313923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEE4-6B4F-AE83-1292AE9F54E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10222,20 +9724,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -10257,7 +9745,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ar-SA"/>
-                  <a:t>عدد مستخديمن التطبيق</a:t>
+                  <a:t>المستخدمين</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10325,6 +9813,38 @@
         <c:crossAx val="1586842943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ar-SA"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11089,19 +10609,19 @@
                   <c:v>40- 49</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10- 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50- 59</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>60- 69</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10- 19</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0 - 9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>70- 79</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0 - 9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80- 89</c:v>
@@ -11122,37 +10642,37 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21141350389451313</c:v>
+                  <c:v>0.24673948985983193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18039708485630798</c:v>
+                  <c:v>0.2207284052341629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16742296306767201</c:v>
+                  <c:v>0.1682906179606122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14791352090593998</c:v>
+                  <c:v>0.13399606348686949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11468050821882099</c:v>
+                  <c:v>0.11850004706271958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10445072845956847</c:v>
+                  <c:v>6.9803622794520223E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8539474251368729E-2</c:v>
+                  <c:v>1.8916318049366082E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7779549691922902E-2</c:v>
+                  <c:v>1.8627720089670497E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6253122400889673E-3</c:v>
+                  <c:v>3.8248315721363074E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3278093441260935E-4</c:v>
+                  <c:v>4.4259900542428641E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4457347938418445E-4</c:v>
+                  <c:v>1.3028488468648096E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12081,41 +11601,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>72612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47215</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>39077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50035</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51085</c:v>
+                  <c:v>1535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>181945</c:v>
+                  <c:v>102237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234017</c:v>
+                  <c:v>145864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48375</c:v>
+                  <c:v>26328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19580</c:v>
+                  <c:v>10443</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36425</c:v>
+                  <c:v>20673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12201,40 +11706,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>442516</c:v>
+                  <c:v>307795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226316</c:v>
+                  <c:v>156063</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>185363</c:v>
+                  <c:v>122367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410777</c:v>
+                  <c:v>339802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>314264</c:v>
+                  <c:v>197091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>265332</c:v>
+                  <c:v>160337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>184625</c:v>
+                  <c:v>89931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>420377</c:v>
+                  <c:v>267258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>603233</c:v>
+                  <c:v>386888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105071</c:v>
+                  <c:v>55925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61883</c:v>
+                  <c:v>35479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92791</c:v>
+                  <c:v>56310</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12320,40 +11825,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>371</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>233</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>687</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1182</c:v>
+                  <c:v>874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>411</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12439,40 +11944,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>463776</c:v>
+                  <c:v>319527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402031</c:v>
+                  <c:v>247167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>368444</c:v>
+                  <c:v>218749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>654557</c:v>
+                  <c:v>484671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>692343</c:v>
+                  <c:v>509072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580900</c:v>
+                  <c:v>384959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>475995</c:v>
+                  <c:v>257220</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>589760</c:v>
+                  <c:v>332853</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>973887</c:v>
+                  <c:v>561797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227783</c:v>
+                  <c:v>113745</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>186630</c:v>
+                  <c:v>96142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105003</c:v>
+                  <c:v>57327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12558,40 +12063,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>487537</c:v>
+                  <c:v>339311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>439981</c:v>
+                  <c:v>264849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>434761</c:v>
+                  <c:v>245110</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>848101</c:v>
+                  <c:v>635219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800851</c:v>
+                  <c:v>559360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>681284</c:v>
+                  <c:v>425897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>557686</c:v>
+                  <c:v>277141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>684243</c:v>
+                  <c:v>353665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>980463</c:v>
+                  <c:v>555124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>272486</c:v>
+                  <c:v>123343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>388921</c:v>
+                  <c:v>165313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>128449</c:v>
+                  <c:v>61152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,40 +12182,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>336103</c:v>
+                  <c:v>208785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>316882</c:v>
+                  <c:v>158325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>332850</c:v>
+                  <c:v>149873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>619546</c:v>
+                  <c:v>423257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570863</c:v>
+                  <c:v>342337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>513615</c:v>
+                  <c:v>269295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>474801</c:v>
+                  <c:v>193135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>571311</c:v>
+                  <c:v>251616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>697333</c:v>
+                  <c:v>380158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225448</c:v>
+                  <c:v>92418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>544981</c:v>
+                  <c:v>217204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105915</c:v>
+                  <c:v>45569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12798,40 +12303,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>233554</c:v>
+                  <c:v>105529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>266198</c:v>
+                  <c:v>88155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304100</c:v>
+                  <c:v>88492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>462976</c:v>
+                  <c:v>236546</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>425699</c:v>
+                  <c:v>195900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412044</c:v>
+                  <c:v>163780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>472970</c:v>
+                  <c:v>157956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>581093</c:v>
+                  <c:v>210535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551476</c:v>
+                  <c:v>287431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219581</c:v>
+                  <c:v>79357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>686223</c:v>
+                  <c:v>279881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75012</c:v>
+                  <c:v>30127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12919,40 +12424,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>141197</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190083</c:v>
+                  <c:v>39730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241656</c:v>
+                  <c:v>43284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311182</c:v>
+                  <c:v>104219</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281474</c:v>
+                  <c:v>88772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>302522</c:v>
+                  <c:v>85922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>390952</c:v>
+                  <c:v>108043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>534887</c:v>
+                  <c:v>161646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>428911</c:v>
+                  <c:v>208485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>186256</c:v>
+                  <c:v>61884</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>580440</c:v>
+                  <c:v>171686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47415</c:v>
+                  <c:v>16296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13040,40 +12545,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>41405</c:v>
+                  <c:v>11447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60776</c:v>
+                  <c:v>11056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83185</c:v>
+                  <c:v>12431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101533</c:v>
+                  <c:v>27217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92891</c:v>
+                  <c:v>23491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107083</c:v>
+                  <c:v>24764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144290</c:v>
+                  <c:v>34331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>203610</c:v>
+                  <c:v>57334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153756</c:v>
+                  <c:v>73362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>64384</c:v>
+                  <c:v>21329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157594</c:v>
+                  <c:v>2939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11733</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13161,40 +12666,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7869</c:v>
+                  <c:v>3288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10596</c:v>
+                  <c:v>2926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14141</c:v>
+                  <c:v>3002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18331</c:v>
+                  <c:v>6469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16039</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19015</c:v>
+                  <c:v>5651</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23707</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33712</c:v>
+                  <c:v>10433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26585</c:v>
+                  <c:v>13700</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10726</c:v>
+                  <c:v>3723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27635</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1759</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13282,40 +12787,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>981</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1181</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1453</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1829</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1549</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1738</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2097</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2855</c:v>
+                  <c:v>1005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2510</c:v>
+                  <c:v>1438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>981</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2738</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14177,40 +13682,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2227921</c:v>
+                  <c:v>1339447</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1961627</c:v>
+                  <c:v>968721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2005252</c:v>
+                  <c:v>883795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3472915</c:v>
+                  <c:v>2258326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3252932</c:v>
+                  <c:v>1922229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2933770</c:v>
+                  <c:v>1521380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2778441</c:v>
+                  <c:v>1126275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3804480</c:v>
+                  <c:v>1748973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4653353</c:v>
+                  <c:v>2615121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1361502</c:v>
+                  <c:v>578644</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2656949</c:v>
+                  <c:v>979833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>604835</c:v>
+                  <c:v>290912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14313,37 +13818,37 @@
                 <c:formatCode>0_ ;[Red]\-0\ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>-266294</c:v>
+                  <c:v>-370726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43625</c:v>
+                  <c:v>-84926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1467663</c:v>
+                  <c:v>1374531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-219983</c:v>
+                  <c:v>-336097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-319162</c:v>
+                  <c:v>-400849</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-155329</c:v>
+                  <c:v>-395105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1026039</c:v>
+                  <c:v>622698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>848873</c:v>
+                  <c:v>866148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3291851</c:v>
+                  <c:v>-2036477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1295447</c:v>
+                  <c:v>401189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2052114</c:v>
+                  <c:v>-688921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15038,7 +14543,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -15171,125 +14676,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-03E3-D44B-950E-007BC2DD14DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'التغير بين السنتين'!$C$28:$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1444</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'التغير بين السنتين'!$A$30:$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'التغير بين السنتين'!$C$30:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>888474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>992906</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1121457</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1214589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1330703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1412390</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1652166</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2055507</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2038232</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>782858</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1677116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>313923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E982-0743-8A95-B0256CB738A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22763,13 +22149,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200527</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>19098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23567,7 +22953,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45185.939934722221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="259" xr:uid="{B8321959-3ADE-A843-B87F-CBF5C230EA4F}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45191.037207175927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="259" xr:uid="{B8321959-3ADE-A843-B87F-CBF5C230EA4F}">
   <cacheSource type="worksheet">
     <worksheetSource name="بيانات"/>
   </cacheSource>
@@ -25181,7 +24567,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{825D715C-5831-6541-B4F5-666FE9868B64}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{825D715C-5831-6541-B4F5-666FE9868B64}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A75:B78" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -25216,11 +24602,11 @@
     <dataField name="مجموع من عدد مستخدمي تطبيق نسك" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="5">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -25248,6 +24634,24 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -25262,13 +24666,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D900ED2-E8C1-904B-9D65-411B78D242A9}" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="A37:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D900ED2-E8C1-904B-9D65-411B78D242A9}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A37:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25310,12 +24714,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -25328,7 +24729,7 @@
     <dataField name="مجموع من عدد مستخدمي تطبيق نسك" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -25470,13 +24871,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41CE6842-06D9-7C45-BF53-ABC2EEEF072C}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A7:C20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{41CE6842-06D9-7C45-BF53-ABC2EEEF072C}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A7:B20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25497,7 +24898,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item x="6"/>
         <item x="7"/>
@@ -25512,18 +24913,6 @@
         <item x="9"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
   </pivotFields>
@@ -25532,7 +24921,16 @@
   </rowFields>
   <rowItems count="12">
     <i>
-      <x v="6"/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -25541,28 +24939,19 @@
       <x v="5"/>
     </i>
     <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
       <x v="10"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -25571,30 +24960,27 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="1">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="مجموع من عدد مستخدمي تطبيق نسك" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="8">
+  <chartFormats count="14">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -25691,6 +25077,72 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -25705,13 +25157,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDD1061C-50BA-9843-8AE8-402EB23EFE47}" name="PivotTable11" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A67:D69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDD1061C-50BA-9843-8AE8-402EB23EFE47}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A67:D68" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -25753,12 +25205,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="1">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -25781,7 +25230,7 @@
     <dataField name="مقدار التغير " fld="3" showDataAs="difference" baseField="0" baseItem="1048828"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -25790,7 +25239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -25799,7 +25248,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -25825,165 +25274,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{751C4E98-FB86-7C43-B3FD-929EE7A39ECE}" name="PivotTable12" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="11"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="6"/>
-        <item x="7"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="مجموع عدد المستخدمين" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="الفرق" fld="3" showDataAs="difference" baseField="1" baseItem="1048828" numFmtId="165"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D709873-773F-BB4F-A0F9-DC3C46FF1875}" name="PivotTable18" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D709873-773F-BB4F-A0F9-DC3C46FF1875}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A52:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisPage" showAll="0">
@@ -26051,19 +25342,19 @@
       <x v="5"/>
     </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i>
       <x v="6"/>
     </i>
     <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="1"/>
+      <x/>
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x/>
     </i>
     <i>
       <x v="9"/>
@@ -26082,13 +25373,13 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
+    <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="مجموع من عدد مستخدمي تطبيق نسك" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -26674,14 +25965,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77C10680-564B-6C42-8604-0F7DD594A97A}" name="PivotTable14" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A28:C42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77C10680-564B-6C42-8604-0F7DD594A97A}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A28:B42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -26767,12 +26058,9 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="1">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -26906,14 +26194,208 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{751C4E98-FB86-7C43-B3FD-929EE7A39ECE}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="11"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="مجموع عدد المستخدمين" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="الفرق" fld="3" showDataAs="difference" baseField="1" baseItem="1048828" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0417666D-4F93-3549-B7AC-62AD457F7875}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0417666D-4F93-3549-B7AC-62AD457F7875}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="القيم" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:M17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -27336,7 +26818,7 @@
     <tabular pivotCacheId="814662162">
       <items count="2">
         <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
       </items>
     </tabular>
   </data>
@@ -27415,13 +26897,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79C63810-E1D2-4242-B2B2-6093F64D9EDD}" name="بيانات" displayName="بيانات" ref="A1:D260" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79C63810-E1D2-4242-B2B2-6093F64D9EDD}" name="بيانات" displayName="بيانات" ref="A1:D260" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:D260" xr:uid="{79C63810-E1D2-4242-B2B2-6093F64D9EDD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BEFF7336-D889-46DC-950B-577842BF8404}" name="السنة" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{739E075C-D15A-4347-9E43-D53AB1519F41}" name="الشهر" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A3E41ED2-209E-4BBC-8A67-F631FAE80BAD}" name="الفئة العمرية" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0D0DE04D-5794-4D5A-A626-A62EB0CFB090}" name="عدد مستخدمي تطبيق نسك" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BEFF7336-D889-46DC-950B-577842BF8404}" name="السنة" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{739E075C-D15A-4347-9E43-D53AB1519F41}" name="الشهر" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A3E41ED2-209E-4BBC-8A67-F631FAE80BAD}" name="الفئة العمرية" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{0D0DE04D-5794-4D5A-A626-A62EB0CFB090}" name="عدد مستخدمي تطبيق نسك" dataDxfId="15" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31388,21 +30870,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7A49A3-F7EC-8B44-A780-369E36F21BD8}">
   <dimension ref="A7:D78"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="88" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView rightToLeft="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -31410,147 +30893,108 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1443</v>
       </c>
-      <c r="C8">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>307081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2175246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13">
+        <v>3583229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13">
+        <v>4005484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2731972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B15" s="13">
         <v>1923689</v>
       </c>
-      <c r="C9" s="13">
-        <v>2767237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="13">
-        <v>4005484</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2699279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2731972</v>
-      </c>
-      <c r="C11" s="13">
-        <v>2577676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B16" s="13">
         <v>1133168</v>
       </c>
-      <c r="C12" s="13">
-        <v>2503807</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="13">
-        <v>3583229</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2137880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13">
-        <v>2175246</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1137302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B17" s="13">
         <v>302396</v>
       </c>
-      <c r="C15" s="13">
-        <v>919844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="13">
-        <v>307081</v>
-      </c>
-      <c r="C16" s="13">
-        <v>573919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B18" s="13">
         <v>62091</v>
       </c>
-      <c r="C17" s="13">
-        <v>148024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B19" s="13">
         <v>7185</v>
       </c>
-      <c r="C18" s="13">
-        <v>12883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2115</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="13">
         <v>16233656</v>
-      </c>
-      <c r="C20" s="13">
-        <v>15480321</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -31570,19 +31014,11 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
-        <v>1444</v>
+      <c r="A39" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B39" s="13">
-        <v>15480321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="13">
-        <v>31713977</v>
+        <v>16233656</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -31599,10 +31035,10 @@
         <v>18</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -31613,20 +31049,7 @@
         <v>16233656</v>
       </c>
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="6">
-        <v>1444</v>
-      </c>
-      <c r="B69" s="13">
-        <v>15480321</v>
-      </c>
-      <c r="C69" s="8">
-        <v>-4.6405751113612365E-2</v>
-      </c>
-      <c r="D69" s="13">
-        <v>-753335</v>
-      </c>
+      <c r="D68" s="16"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
@@ -31670,23 +31093,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6E1252-8772-1742-966F-D48A16D69818}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView rightToLeft="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
+      <c r="B1" s="6">
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -31694,18 +31118,18 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2227921</v>
+      <c r="B4" s="16">
+        <v>1339447</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -31713,133 +31137,133 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1961627</v>
+      <c r="B5" s="16">
+        <v>968721</v>
       </c>
       <c r="C5" s="10">
-        <v>-266294</v>
+        <v>-370726</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>2005252</v>
+      <c r="B6" s="16">
+        <v>883795</v>
       </c>
       <c r="C6" s="10">
-        <v>43625</v>
+        <v>-84926</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>3472915</v>
+      <c r="B7" s="16">
+        <v>2258326</v>
       </c>
       <c r="C7" s="10">
-        <v>1467663</v>
+        <v>1374531</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>3252932</v>
+      <c r="B8" s="16">
+        <v>1922229</v>
       </c>
       <c r="C8" s="10">
-        <v>-219983</v>
+        <v>-336097</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2933770</v>
+      <c r="B9" s="16">
+        <v>1521380</v>
       </c>
       <c r="C9" s="10">
-        <v>-319162</v>
+        <v>-400849</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>2778441</v>
+      <c r="B10" s="16">
+        <v>1126275</v>
       </c>
       <c r="C10" s="10">
-        <v>-155329</v>
+        <v>-395105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>3804480</v>
+      <c r="B11" s="16">
+        <v>1748973</v>
       </c>
       <c r="C11" s="10">
-        <v>1026039</v>
+        <v>622698</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>4653353</v>
+      <c r="B12" s="16">
+        <v>2615121</v>
       </c>
       <c r="C12" s="10">
-        <v>848873</v>
+        <v>866148</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>1361502</v>
+      <c r="B13" s="16">
+        <v>578644</v>
       </c>
       <c r="C13" s="10">
-        <v>-3291851</v>
+        <v>-2036477</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>2656949</v>
+      <c r="B14" s="16">
+        <v>979833</v>
       </c>
       <c r="C14" s="10">
-        <v>1295447</v>
+        <v>401189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15">
-        <v>604835</v>
+      <c r="B15" s="16">
+        <v>290912</v>
       </c>
       <c r="C15" s="10">
-        <v>-2052114</v>
+        <v>-688921</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>31713977</v>
+      <c r="B16" s="16">
+        <v>16233656</v>
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
@@ -31847,166 +31271,124 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B29">
         <v>1443</v>
       </c>
-      <c r="C29">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>1339447</v>
       </c>
-      <c r="C30">
-        <v>888474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="16">
         <v>968721</v>
       </c>
-      <c r="C31">
-        <v>992906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>3</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="16">
         <v>883795</v>
       </c>
-      <c r="C32">
-        <v>1121457</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="16">
         <v>2258326</v>
       </c>
-      <c r="C33">
-        <v>1214589</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>5</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="16">
         <v>1922229</v>
       </c>
-      <c r="C34">
-        <v>1330703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>6</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="16">
         <v>1521380</v>
       </c>
-      <c r="C35">
-        <v>1412390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>7</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="16">
         <v>1126275</v>
       </c>
-      <c r="C36">
-        <v>1652166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>8</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="16">
         <v>1748973</v>
       </c>
-      <c r="C37">
-        <v>2055507</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="16">
         <v>2615121</v>
       </c>
-      <c r="C38">
-        <v>2038232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="16">
         <v>578644</v>
       </c>
-      <c r="C39">
-        <v>782858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>11</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="16">
         <v>979833</v>
       </c>
-      <c r="C40">
-        <v>1677116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>12</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="16">
         <v>290912</v>
       </c>
-      <c r="C41">
-        <v>313923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="16">
         <v>16233656</v>
-      </c>
-      <c r="C42">
-        <v>15480321</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>19</v>
+      <c r="B50" s="6">
+        <v>1443</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -32022,7 +31404,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="14">
-        <v>0.21141350389451313</v>
+        <v>0.24673948985983193</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -32030,7 +31412,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="14">
-        <v>0.18039708485630798</v>
+        <v>0.2207284052341629</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -32038,47 +31420,47 @@
         <v>0</v>
       </c>
       <c r="B55" s="14">
-        <v>0.16742296306767201</v>
+        <v>0.1682906179606122</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B56" s="14">
-        <v>0.14791352090593998</v>
+        <v>0.13399606348686949</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" s="14">
-        <v>0.11468050821882099</v>
+        <v>0.11850004706271958</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B58" s="14">
-        <v>0.10445072845956847</v>
+        <v>6.9803622794520223E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" s="14">
-        <v>3.8539474251368729E-2</v>
+        <v>1.8916318049366082E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="14">
-        <v>2.7779549691922902E-2</v>
+        <v>1.8627720089670497E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -32086,7 +31468,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="14">
-        <v>6.6253122400889673E-3</v>
+        <v>3.8248315721363074E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -32094,7 +31476,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="14">
-        <v>6.3278093441260935E-4</v>
+        <v>4.4259900542428641E-4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -32102,7 +31484,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="14">
-        <v>1.4457347938418445E-4</v>
+        <v>1.3028488468648096E-4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -32130,21 +31512,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
+      <c r="B1" s="6">
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -32200,533 +31583,523 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>72612</v>
-      </c>
-      <c r="C5">
-        <v>442516</v>
-      </c>
-      <c r="D5">
-        <v>371</v>
-      </c>
-      <c r="E5">
-        <v>463776</v>
-      </c>
-      <c r="F5">
-        <v>487537</v>
-      </c>
-      <c r="G5">
-        <v>336103</v>
-      </c>
-      <c r="H5">
-        <v>233554</v>
-      </c>
-      <c r="I5">
-        <v>141197</v>
-      </c>
-      <c r="J5">
-        <v>41405</v>
-      </c>
-      <c r="K5">
-        <v>7869</v>
-      </c>
-      <c r="L5">
-        <v>981</v>
-      </c>
-      <c r="M5">
-        <v>2227921</v>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
+        <v>307795</v>
+      </c>
+      <c r="D5" s="16">
+        <v>55</v>
+      </c>
+      <c r="E5" s="16">
+        <v>319527</v>
+      </c>
+      <c r="F5" s="16">
+        <v>339311</v>
+      </c>
+      <c r="G5" s="16">
+        <v>208785</v>
+      </c>
+      <c r="H5" s="16">
+        <v>105529</v>
+      </c>
+      <c r="I5" s="16">
+        <v>43201</v>
+      </c>
+      <c r="J5" s="16">
+        <v>11447</v>
+      </c>
+      <c r="K5" s="16">
+        <v>3288</v>
+      </c>
+      <c r="L5" s="16">
+        <v>509</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1339447</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>47215</v>
-      </c>
-      <c r="C6">
-        <v>226316</v>
-      </c>
-      <c r="D6">
-        <v>368</v>
-      </c>
-      <c r="E6">
-        <v>402031</v>
-      </c>
-      <c r="F6">
-        <v>439981</v>
-      </c>
-      <c r="G6">
-        <v>316882</v>
-      </c>
-      <c r="H6">
-        <v>266198</v>
-      </c>
-      <c r="I6">
-        <v>190083</v>
-      </c>
-      <c r="J6">
-        <v>60776</v>
-      </c>
-      <c r="K6">
-        <v>10596</v>
-      </c>
-      <c r="L6">
-        <v>1181</v>
-      </c>
-      <c r="M6">
-        <v>1961627</v>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16">
+        <v>156063</v>
+      </c>
+      <c r="D6" s="16">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16">
+        <v>247167</v>
+      </c>
+      <c r="F6" s="16">
+        <v>264849</v>
+      </c>
+      <c r="G6" s="16">
+        <v>158325</v>
+      </c>
+      <c r="H6" s="16">
+        <v>88155</v>
+      </c>
+      <c r="I6" s="16">
+        <v>39730</v>
+      </c>
+      <c r="J6" s="16">
+        <v>11056</v>
+      </c>
+      <c r="K6" s="16">
+        <v>2926</v>
+      </c>
+      <c r="L6" s="16">
+        <v>405</v>
+      </c>
+      <c r="M6" s="16">
+        <v>968721</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>39077</v>
-      </c>
-      <c r="C7">
-        <v>185363</v>
-      </c>
-      <c r="D7">
-        <v>222</v>
-      </c>
-      <c r="E7">
-        <v>368444</v>
-      </c>
-      <c r="F7">
-        <v>434761</v>
-      </c>
-      <c r="G7">
-        <v>332850</v>
-      </c>
-      <c r="H7">
-        <v>304100</v>
-      </c>
-      <c r="I7">
-        <v>241656</v>
-      </c>
-      <c r="J7">
-        <v>83185</v>
-      </c>
-      <c r="K7">
-        <v>14141</v>
-      </c>
-      <c r="L7">
-        <v>1453</v>
-      </c>
-      <c r="M7">
-        <v>2005252</v>
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>122367</v>
+      </c>
+      <c r="D7" s="16">
+        <v>34</v>
+      </c>
+      <c r="E7" s="16">
+        <v>218749</v>
+      </c>
+      <c r="F7" s="16">
+        <v>245110</v>
+      </c>
+      <c r="G7" s="16">
+        <v>149873</v>
+      </c>
+      <c r="H7" s="16">
+        <v>88492</v>
+      </c>
+      <c r="I7" s="16">
+        <v>43284</v>
+      </c>
+      <c r="J7" s="16">
+        <v>12431</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3002</v>
+      </c>
+      <c r="L7" s="16">
+        <v>452</v>
+      </c>
+      <c r="M7" s="16">
+        <v>883795</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>43913</v>
-      </c>
-      <c r="C8">
-        <v>410777</v>
-      </c>
-      <c r="D8">
-        <v>170</v>
-      </c>
-      <c r="E8">
-        <v>654557</v>
-      </c>
-      <c r="F8">
-        <v>848101</v>
-      </c>
-      <c r="G8">
-        <v>619546</v>
-      </c>
-      <c r="H8">
-        <v>462976</v>
-      </c>
-      <c r="I8">
-        <v>311182</v>
-      </c>
-      <c r="J8">
-        <v>101533</v>
-      </c>
-      <c r="K8">
-        <v>18331</v>
-      </c>
-      <c r="L8">
-        <v>1829</v>
-      </c>
-      <c r="M8">
-        <v>3472915</v>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16">
+        <v>339802</v>
+      </c>
+      <c r="D8" s="16">
+        <v>66</v>
+      </c>
+      <c r="E8" s="16">
+        <v>484671</v>
+      </c>
+      <c r="F8" s="16">
+        <v>635219</v>
+      </c>
+      <c r="G8" s="16">
+        <v>423257</v>
+      </c>
+      <c r="H8" s="16">
+        <v>236546</v>
+      </c>
+      <c r="I8" s="16">
+        <v>104219</v>
+      </c>
+      <c r="J8" s="16">
+        <v>27217</v>
+      </c>
+      <c r="K8" s="16">
+        <v>6469</v>
+      </c>
+      <c r="L8" s="16">
+        <v>860</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2258326</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>56721</v>
-      </c>
-      <c r="C9">
-        <v>314264</v>
-      </c>
-      <c r="D9">
-        <v>238</v>
-      </c>
-      <c r="E9">
-        <v>692343</v>
-      </c>
-      <c r="F9">
-        <v>800851</v>
-      </c>
-      <c r="G9">
-        <v>570863</v>
-      </c>
-      <c r="H9">
-        <v>425699</v>
-      </c>
-      <c r="I9">
-        <v>281474</v>
-      </c>
-      <c r="J9">
-        <v>92891</v>
-      </c>
-      <c r="K9">
-        <v>16039</v>
-      </c>
-      <c r="L9">
-        <v>1549</v>
-      </c>
-      <c r="M9">
-        <v>3252932</v>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
+        <v>197091</v>
+      </c>
+      <c r="D9" s="16">
+        <v>62</v>
+      </c>
+      <c r="E9" s="16">
+        <v>509072</v>
+      </c>
+      <c r="F9" s="16">
+        <v>559360</v>
+      </c>
+      <c r="G9" s="16">
+        <v>342337</v>
+      </c>
+      <c r="H9" s="16">
+        <v>195900</v>
+      </c>
+      <c r="I9" s="16">
+        <v>88772</v>
+      </c>
+      <c r="J9" s="16">
+        <v>23491</v>
+      </c>
+      <c r="K9" s="16">
+        <v>5450</v>
+      </c>
+      <c r="L9" s="16">
+        <v>694</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1922229</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>50035</v>
-      </c>
-      <c r="C10">
-        <v>265332</v>
-      </c>
-      <c r="D10">
-        <v>202</v>
-      </c>
-      <c r="E10">
-        <v>580900</v>
-      </c>
-      <c r="F10">
-        <v>681284</v>
-      </c>
-      <c r="G10">
-        <v>513615</v>
-      </c>
-      <c r="H10">
-        <v>412044</v>
-      </c>
-      <c r="I10">
-        <v>302522</v>
-      </c>
-      <c r="J10">
-        <v>107083</v>
-      </c>
-      <c r="K10">
-        <v>19015</v>
-      </c>
-      <c r="L10">
-        <v>1738</v>
-      </c>
-      <c r="M10">
-        <v>2933770</v>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16">
+        <v>160337</v>
+      </c>
+      <c r="D10" s="16">
+        <v>67</v>
+      </c>
+      <c r="E10" s="16">
+        <v>384959</v>
+      </c>
+      <c r="F10" s="16">
+        <v>425897</v>
+      </c>
+      <c r="G10" s="16">
+        <v>269295</v>
+      </c>
+      <c r="H10" s="16">
+        <v>163780</v>
+      </c>
+      <c r="I10" s="16">
+        <v>85922</v>
+      </c>
+      <c r="J10" s="16">
+        <v>24764</v>
+      </c>
+      <c r="K10" s="16">
+        <v>5651</v>
+      </c>
+      <c r="L10" s="16">
+        <v>708</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1521380</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>51085</v>
-      </c>
-      <c r="C11">
-        <v>184625</v>
-      </c>
-      <c r="D11">
-        <v>233</v>
-      </c>
-      <c r="E11">
-        <v>475995</v>
-      </c>
-      <c r="F11">
-        <v>557686</v>
-      </c>
-      <c r="G11">
-        <v>474801</v>
-      </c>
-      <c r="H11">
-        <v>472970</v>
-      </c>
-      <c r="I11">
-        <v>390952</v>
-      </c>
-      <c r="J11">
-        <v>144290</v>
-      </c>
-      <c r="K11">
-        <v>23707</v>
-      </c>
-      <c r="L11">
-        <v>2097</v>
-      </c>
-      <c r="M11">
-        <v>2778441</v>
+      <c r="B11" s="16">
+        <v>1535</v>
+      </c>
+      <c r="C11" s="16">
+        <v>89931</v>
+      </c>
+      <c r="D11" s="16">
+        <v>49</v>
+      </c>
+      <c r="E11" s="16">
+        <v>257220</v>
+      </c>
+      <c r="F11" s="16">
+        <v>277141</v>
+      </c>
+      <c r="G11" s="16">
+        <v>193135</v>
+      </c>
+      <c r="H11" s="16">
+        <v>157956</v>
+      </c>
+      <c r="I11" s="16">
+        <v>108043</v>
+      </c>
+      <c r="J11" s="16">
+        <v>34331</v>
+      </c>
+      <c r="K11" s="16">
+        <v>6290</v>
+      </c>
+      <c r="L11" s="16">
+        <v>644</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1126275</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>181945</v>
-      </c>
-      <c r="C12">
-        <v>420377</v>
-      </c>
-      <c r="D12">
-        <v>687</v>
-      </c>
-      <c r="E12">
-        <v>589760</v>
-      </c>
-      <c r="F12">
-        <v>684243</v>
-      </c>
-      <c r="G12">
-        <v>571311</v>
-      </c>
-      <c r="H12">
-        <v>581093</v>
-      </c>
-      <c r="I12">
-        <v>534887</v>
-      </c>
-      <c r="J12">
-        <v>203610</v>
-      </c>
-      <c r="K12">
-        <v>33712</v>
-      </c>
-      <c r="L12">
-        <v>2855</v>
-      </c>
-      <c r="M12">
-        <v>3804480</v>
+      <c r="B12" s="16">
+        <v>102237</v>
+      </c>
+      <c r="C12" s="16">
+        <v>267258</v>
+      </c>
+      <c r="D12" s="16">
+        <v>391</v>
+      </c>
+      <c r="E12" s="16">
+        <v>332853</v>
+      </c>
+      <c r="F12" s="16">
+        <v>353665</v>
+      </c>
+      <c r="G12" s="16">
+        <v>251616</v>
+      </c>
+      <c r="H12" s="16">
+        <v>210535</v>
+      </c>
+      <c r="I12" s="16">
+        <v>161646</v>
+      </c>
+      <c r="J12" s="16">
+        <v>57334</v>
+      </c>
+      <c r="K12" s="16">
+        <v>10433</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1005</v>
+      </c>
+      <c r="M12" s="16">
+        <v>1748973</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>234017</v>
-      </c>
-      <c r="C13">
-        <v>603233</v>
-      </c>
-      <c r="D13">
-        <v>1182</v>
-      </c>
-      <c r="E13">
-        <v>973887</v>
-      </c>
-      <c r="F13">
-        <v>980463</v>
-      </c>
-      <c r="G13">
-        <v>697333</v>
-      </c>
-      <c r="H13">
-        <v>551476</v>
-      </c>
-      <c r="I13">
-        <v>428911</v>
-      </c>
-      <c r="J13">
-        <v>153756</v>
-      </c>
-      <c r="K13">
-        <v>26585</v>
-      </c>
-      <c r="L13">
-        <v>2510</v>
-      </c>
-      <c r="M13">
-        <v>4653353</v>
+      <c r="B13" s="16">
+        <v>145864</v>
+      </c>
+      <c r="C13" s="16">
+        <v>386888</v>
+      </c>
+      <c r="D13" s="16">
+        <v>874</v>
+      </c>
+      <c r="E13" s="16">
+        <v>561797</v>
+      </c>
+      <c r="F13" s="16">
+        <v>555124</v>
+      </c>
+      <c r="G13" s="16">
+        <v>380158</v>
+      </c>
+      <c r="H13" s="16">
+        <v>287431</v>
+      </c>
+      <c r="I13" s="16">
+        <v>208485</v>
+      </c>
+      <c r="J13" s="16">
+        <v>73362</v>
+      </c>
+      <c r="K13" s="16">
+        <v>13700</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1438</v>
+      </c>
+      <c r="M13" s="16">
+        <v>2615121</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>48375</v>
-      </c>
-      <c r="C14">
-        <v>105071</v>
-      </c>
-      <c r="D14">
-        <v>411</v>
-      </c>
-      <c r="E14">
-        <v>227783</v>
-      </c>
-      <c r="F14">
-        <v>272486</v>
-      </c>
-      <c r="G14">
-        <v>225448</v>
-      </c>
-      <c r="H14">
-        <v>219581</v>
-      </c>
-      <c r="I14">
-        <v>186256</v>
-      </c>
-      <c r="J14">
-        <v>64384</v>
-      </c>
-      <c r="K14">
-        <v>10726</v>
-      </c>
-      <c r="L14">
-        <v>981</v>
-      </c>
-      <c r="M14">
-        <v>1361502</v>
+      <c r="B14" s="16">
+        <v>26328</v>
+      </c>
+      <c r="C14" s="16">
+        <v>55925</v>
+      </c>
+      <c r="D14" s="16">
+        <v>261</v>
+      </c>
+      <c r="E14" s="16">
+        <v>113745</v>
+      </c>
+      <c r="F14" s="16">
+        <v>123343</v>
+      </c>
+      <c r="G14" s="16">
+        <v>92418</v>
+      </c>
+      <c r="H14" s="16">
+        <v>79357</v>
+      </c>
+      <c r="I14" s="16">
+        <v>61884</v>
+      </c>
+      <c r="J14" s="16">
+        <v>21329</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3723</v>
+      </c>
+      <c r="L14" s="16">
+        <v>331</v>
+      </c>
+      <c r="M14" s="16">
+        <v>578644</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>19580</v>
-      </c>
-      <c r="C15">
-        <v>61883</v>
-      </c>
-      <c r="D15">
-        <v>324</v>
-      </c>
-      <c r="E15">
-        <v>186630</v>
-      </c>
-      <c r="F15">
-        <v>388921</v>
-      </c>
-      <c r="G15">
-        <v>544981</v>
-      </c>
-      <c r="H15">
-        <v>686223</v>
-      </c>
-      <c r="I15">
-        <v>580440</v>
-      </c>
-      <c r="J15">
-        <v>157594</v>
-      </c>
-      <c r="K15">
-        <v>27635</v>
-      </c>
-      <c r="L15">
-        <v>2738</v>
-      </c>
-      <c r="M15">
-        <v>2656949</v>
+      <c r="B15" s="16">
+        <v>10443</v>
+      </c>
+      <c r="C15" s="16">
+        <v>35479</v>
+      </c>
+      <c r="D15" s="16">
+        <v>77</v>
+      </c>
+      <c r="E15" s="16">
+        <v>96142</v>
+      </c>
+      <c r="F15" s="16">
+        <v>165313</v>
+      </c>
+      <c r="G15" s="16">
+        <v>217204</v>
+      </c>
+      <c r="H15" s="16">
+        <v>279881</v>
+      </c>
+      <c r="I15" s="16">
+        <v>171686</v>
+      </c>
+      <c r="J15" s="16">
+        <v>2939</v>
+      </c>
+      <c r="K15" s="16">
+        <v>595</v>
+      </c>
+      <c r="L15" s="16">
+        <v>74</v>
+      </c>
+      <c r="M15" s="16">
+        <v>979833</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>36425</v>
-      </c>
-      <c r="C16">
-        <v>92791</v>
-      </c>
-      <c r="D16">
-        <v>177</v>
-      </c>
-      <c r="E16">
-        <v>105003</v>
-      </c>
-      <c r="F16">
-        <v>128449</v>
-      </c>
-      <c r="G16">
-        <v>105915</v>
-      </c>
-      <c r="H16">
-        <v>75012</v>
-      </c>
-      <c r="I16">
-        <v>47415</v>
-      </c>
-      <c r="J16">
-        <v>11733</v>
-      </c>
-      <c r="K16">
-        <v>1759</v>
-      </c>
-      <c r="L16">
-        <v>156</v>
-      </c>
-      <c r="M16">
-        <v>604835</v>
+      <c r="B16" s="16">
+        <v>20673</v>
+      </c>
+      <c r="C16" s="16">
+        <v>56310</v>
+      </c>
+      <c r="D16" s="16">
+        <v>134</v>
+      </c>
+      <c r="E16" s="16">
+        <v>57327</v>
+      </c>
+      <c r="F16" s="16">
+        <v>61152</v>
+      </c>
+      <c r="G16" s="16">
+        <v>45569</v>
+      </c>
+      <c r="H16" s="16">
+        <v>30127</v>
+      </c>
+      <c r="I16" s="16">
+        <v>16296</v>
+      </c>
+      <c r="J16" s="16">
+        <v>2695</v>
+      </c>
+      <c r="K16" s="16">
+        <v>564</v>
+      </c>
+      <c r="L16" s="16">
+        <v>65</v>
+      </c>
+      <c r="M16" s="16">
+        <v>290912</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>881000</v>
-      </c>
-      <c r="C17">
-        <v>3312548</v>
-      </c>
-      <c r="D17">
-        <v>4585</v>
-      </c>
-      <c r="E17">
-        <v>5721109</v>
-      </c>
-      <c r="F17">
-        <v>6704763</v>
-      </c>
-      <c r="G17">
-        <v>5309648</v>
-      </c>
-      <c r="H17">
-        <v>4690926</v>
-      </c>
-      <c r="I17">
-        <v>3636975</v>
-      </c>
-      <c r="J17">
-        <v>1222240</v>
-      </c>
-      <c r="K17">
-        <v>210115</v>
-      </c>
-      <c r="L17">
-        <v>20068</v>
-      </c>
-      <c r="M17">
-        <v>31713977</v>
+      <c r="B17" s="16">
+        <v>307081</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2175246</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2115</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3583229</v>
+      </c>
+      <c r="F17" s="16">
+        <v>4005484</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2731972</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1923689</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1133168</v>
+      </c>
+      <c r="J17" s="16">
+        <v>302396</v>
+      </c>
+      <c r="K17" s="16">
+        <v>62091</v>
+      </c>
+      <c r="L17" s="16">
+        <v>7185</v>
+      </c>
+      <c r="M17" s="16">
+        <v>16233656</v>
       </c>
     </row>
   </sheetData>
@@ -32739,8 +32112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80263DB-3DEA-E249-81CA-6537E62FEAB0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA92" sqref="AA92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
